--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf15-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf15-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Fgf15</t>
+  </si>
+  <si>
+    <t>Fgfr3</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf15</t>
-  </si>
-  <si>
-    <t>Fgfr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,22 +537,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01619866666666667</v>
+        <v>0.05008433333333333</v>
       </c>
       <c r="H2">
-        <v>0.04859600000000001</v>
+        <v>0.150253</v>
       </c>
       <c r="I2">
-        <v>0.5323897062851258</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="J2">
-        <v>0.5323897062851259</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.166450999999999</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N2">
-        <v>12.499353</v>
+        <v>13.988392</v>
       </c>
       <c r="O2">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P2">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q2">
-        <v>0.06749095093200001</v>
+        <v>0.2335330959084445</v>
       </c>
       <c r="R2">
-        <v>0.6074185583880001</v>
+        <v>2.101797863176</v>
       </c>
       <c r="S2">
-        <v>0.3794317124274521</v>
+        <v>0.2237615299449962</v>
       </c>
       <c r="T2">
-        <v>0.3794317124274521</v>
+        <v>0.2237615299449962</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +599,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01619866666666667</v>
+        <v>0.05008433333333333</v>
       </c>
       <c r="H3">
-        <v>0.04859600000000001</v>
+        <v>0.150253</v>
       </c>
       <c r="I3">
-        <v>0.5323897062851258</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="J3">
-        <v>0.5323897062851259</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +629,22 @@
         <v>1.996758</v>
       </c>
       <c r="O3">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="P3">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="Q3">
-        <v>0.010781605752</v>
+        <v>0.033335431086</v>
       </c>
       <c r="R3">
-        <v>0.097034451768</v>
+        <v>0.300018879774</v>
       </c>
       <c r="S3">
-        <v>0.06061380194984606</v>
+        <v>0.0319405993919752</v>
       </c>
       <c r="T3">
-        <v>0.06061380194984607</v>
+        <v>0.0319405993919752</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +658,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01619866666666667</v>
+        <v>0.05008433333333333</v>
       </c>
       <c r="H4">
-        <v>0.04859600000000001</v>
+        <v>0.150253</v>
       </c>
       <c r="I4">
-        <v>0.5323897062851258</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="J4">
-        <v>0.5323897062851259</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +685,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.01401</v>
+        <v>0.7894166666666665</v>
       </c>
       <c r="N4">
-        <v>3.04203</v>
+        <v>2.36825</v>
       </c>
       <c r="O4">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="P4">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="Q4">
-        <v>0.01642560998666667</v>
+        <v>0.03953740747222222</v>
       </c>
       <c r="R4">
-        <v>0.14783048988</v>
+        <v>0.35583666725</v>
       </c>
       <c r="S4">
-        <v>0.09234419190782772</v>
+        <v>0.03788307071264783</v>
       </c>
       <c r="T4">
-        <v>0.09234419190782772</v>
+        <v>0.03788307071264783</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,7 +720,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,51 +729,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01422766666666667</v>
+        <v>0.05008433333333333</v>
       </c>
       <c r="H5">
-        <v>0.042683</v>
+        <v>0.150253</v>
       </c>
       <c r="I5">
-        <v>0.4676102937148741</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="J5">
-        <v>0.4676102937148742</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>4.166450999999999</v>
+        <v>0.08057833333333334</v>
       </c>
       <c r="N5">
-        <v>12.499353</v>
+        <v>0.241735</v>
       </c>
       <c r="O5">
-        <v>0.7126954333415383</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="P5">
-        <v>0.7126954333415383</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="Q5">
-        <v>0.05927887601099999</v>
+        <v>0.004035712106111112</v>
       </c>
       <c r="R5">
-        <v>0.5335098840989999</v>
+        <v>0.036321408955</v>
       </c>
       <c r="S5">
-        <v>0.3332637209140862</v>
+        <v>0.003866848558522928</v>
       </c>
       <c r="T5">
-        <v>0.3332637209140862</v>
+        <v>0.003866848558522928</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -776,7 +782,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,46 +791,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.01422766666666667</v>
+        <v>0.05008433333333333</v>
       </c>
       <c r="H6">
-        <v>0.042683</v>
+        <v>0.150253</v>
       </c>
       <c r="I6">
-        <v>0.4676102937148741</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="J6">
-        <v>0.4676102937148742</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.6655859999999999</v>
+        <v>0.16722</v>
       </c>
       <c r="N6">
-        <v>1.996758</v>
+        <v>0.50166</v>
       </c>
       <c r="O6">
-        <v>0.1138523176430159</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="P6">
-        <v>0.1138523176430159</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="Q6">
-        <v>0.009469735745999998</v>
+        <v>0.008375102220000001</v>
       </c>
       <c r="R6">
-        <v>0.08522762171399999</v>
+        <v>0.07537591998</v>
       </c>
       <c r="S6">
-        <v>0.05323851569316979</v>
+        <v>0.008024668533181427</v>
       </c>
       <c r="T6">
-        <v>0.05323851569316979</v>
+        <v>0.008024668533181427</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +844,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.01422766666666667</v>
+        <v>0.1138703333333333</v>
       </c>
       <c r="H7">
-        <v>0.042683</v>
+        <v>0.341611</v>
       </c>
       <c r="I7">
-        <v>0.4676102937148741</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="J7">
-        <v>0.4676102937148742</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +871,276 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.01401</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N7">
-        <v>3.04203</v>
+        <v>13.988392</v>
       </c>
       <c r="O7">
-        <v>0.1734522490154458</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P7">
-        <v>0.1734522490154458</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q7">
-        <v>0.01442699627666667</v>
+        <v>0.5309542866124445</v>
       </c>
       <c r="R7">
-        <v>0.12984296649</v>
+        <v>4.778588579512</v>
       </c>
       <c r="S7">
-        <v>0.08110805710761812</v>
+        <v>0.508737928733803</v>
       </c>
       <c r="T7">
-        <v>0.08110805710761811</v>
+        <v>0.5087379287338031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1138703333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.341611</v>
+      </c>
+      <c r="I8">
+        <v>0.6945232828586764</v>
+      </c>
+      <c r="J8">
+        <v>0.6945232828586764</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.6655859999999999</v>
+      </c>
+      <c r="N8">
+        <v>1.996758</v>
+      </c>
+      <c r="O8">
+        <v>0.1045598489170565</v>
+      </c>
+      <c r="P8">
+        <v>0.1045598489170565</v>
+      </c>
+      <c r="Q8">
+        <v>0.075790499682</v>
+      </c>
+      <c r="R8">
+        <v>0.682114497138</v>
+      </c>
+      <c r="S8">
+        <v>0.07261924952508128</v>
+      </c>
+      <c r="T8">
+        <v>0.07261924952508128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1138703333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.341611</v>
+      </c>
+      <c r="I9">
+        <v>0.6945232828586764</v>
+      </c>
+      <c r="J9">
+        <v>0.6945232828586764</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7894166666666665</v>
+      </c>
+      <c r="N9">
+        <v>2.36825</v>
+      </c>
+      <c r="O9">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="P9">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="Q9">
+        <v>0.08989113897222221</v>
+      </c>
+      <c r="R9">
+        <v>0.8090202507499999</v>
+      </c>
+      <c r="S9">
+        <v>0.08612988538810099</v>
+      </c>
+      <c r="T9">
+        <v>0.086129885388101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1138703333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.341611</v>
+      </c>
+      <c r="I10">
+        <v>0.6945232828586764</v>
+      </c>
+      <c r="J10">
+        <v>0.6945232828586764</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.08057833333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.241735</v>
+      </c>
+      <c r="O10">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="P10">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="Q10">
+        <v>0.009175481676111112</v>
+      </c>
+      <c r="R10">
+        <v>0.082579335085</v>
+      </c>
+      <c r="S10">
+        <v>0.008791558257908833</v>
+      </c>
+      <c r="T10">
+        <v>0.008791558257908835</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1138703333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.341611</v>
+      </c>
+      <c r="I11">
+        <v>0.6945232828586764</v>
+      </c>
+      <c r="J11">
+        <v>0.6945232828586764</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.16722</v>
+      </c>
+      <c r="N11">
+        <v>0.50166</v>
+      </c>
+      <c r="O11">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="P11">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="Q11">
+        <v>0.01904139714</v>
+      </c>
+      <c r="R11">
+        <v>0.17137257426</v>
+      </c>
+      <c r="S11">
+        <v>0.01824466095378222</v>
+      </c>
+      <c r="T11">
+        <v>0.01824466095378222</v>
       </c>
     </row>
   </sheetData>
